--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE.XLSX
@@ -133,10 +133,10 @@
     <t>PATRCIA APICELO</t>
   </si>
   <si>
-    <t>RAFAEL DE SA DOS SANTOS</t>
+    <t>TAINNA PADELA BRAGA</t>
   </si>
   <si>
-    <t> </t>
+    <t>RAFAEL DE SA DOS SANTOS</t>
   </si>
   <si>
     <t> </t>
@@ -151,10 +151,10 @@
     <t>3351</t>
   </si>
   <si>
-    <t>3727</t>
+    <t>3705</t>
   </si>
   <si>
-    <t> </t>
+    <t>3727</t>
   </si>
   <si>
     <t> </t>
@@ -3523,11 +3523,11 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>RAFAEL DE SA DOS SANTOS</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
@@ -3550,11 +3550,11 @@
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>RAFAEL DE SA DOS SANTOS</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
@@ -3574,11 +3574,11 @@
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>RAFAEL DE SA DOS SANTOS</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3598,11 +3598,11 @@
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>RAFAEL DE SA DOS SANTOS</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3903,11 +3903,11 @@
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>3727</v>
+        <v>3705</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
@@ -3930,11 +3930,11 @@
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>3727</v>
+        <v>3705</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
@@ -3954,11 +3954,11 @@
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3727</v>
+        <v>3705</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3978,11 +3978,11 @@
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3727</v>
+        <v>3705</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6607,11 +6607,11 @@
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>RAFAEL DE SA DOS SANTOS</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
@@ -6632,11 +6632,11 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>RAFAEL DE SA DOS SANTOS</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
@@ -6939,11 +6939,11 @@
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3727</v>
+        <v>3705</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
@@ -6964,11 +6964,11 @@
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3727</v>
+        <v>3705</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE.XLSX
@@ -130,13 +130,13 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>PATRCIA APICELO</t>
+    <t>PATRICIA APICELO</t>
   </si>
   <si>
     <t>TAINNA PADELA BRAGA</t>
   </si>
   <si>
-    <t>RAFAEL DE SA DOS SANTOS</t>
+    <t>RAPHAEL DE SA DOS SANTOS</t>
   </si>
   <si>
     <t> </t>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>PATRCIA APICELO</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
@@ -3544,7 +3544,7 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>PATRCIA APICELO</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>PATRCIA APICELO</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>PATRCIA APICELO</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -6603,7 +6603,7 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>PATRCIA APICELO</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>PATRCIA APICELO</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>RAFAEL DE SA DOS SANTOS</v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE.XLSX
@@ -130,6 +130,12 @@
     <t>Domingo</t>
   </si>
   <si>
+    <t>HELENICE DE JESUS PEREIRA</t>
+  </si>
+  <si>
+    <t>GLAUCIENE CONCEICAO RIBEIRO</t>
+  </si>
+  <si>
     <t>PATRICIA APICELO</t>
   </si>
   <si>
@@ -142,10 +148,10 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
+    <t>2664</t>
   </si>
   <si>
-    <t> </t>
+    <t>3310</t>
   </si>
   <si>
     <t>3351</t>
@@ -155,12 +161,6 @@
   </si>
   <si>
     <t>3727</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3518,24 +3518,24 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>PATRICIA APICELO</v>
+        <v>HELENICE DE JESUS PEREIRA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>GLAUCIENE CONCEICAO RIBEIRO</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3544,25 +3544,25 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>PATRICIA APICELO</v>
+        <v>HELENICE DE JESUS PEREIRA</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>GLAUCIENE CONCEICAO RIBEIRO</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3570,23 +3570,23 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>PATRICIA APICELO</v>
+        <v>HELENICE DE JESUS PEREIRA</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>GLAUCIENE CONCEICAO RIBEIRO</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3594,23 +3594,23 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>PATRICIA APICELO</v>
+        <v>HELENICE DE JESUS PEREIRA</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>GLAUCIENE CONCEICAO RIBEIRO</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3898,24 +3898,24 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>G19</f>
-        <v>3351</v>
+        <v>2664</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>3705</v>
+        <v>3310</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3727</v>
+        <v>3351</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3705</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3924,25 +3924,25 @@
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
         <f>G19</f>
-        <v>3351</v>
+        <v>2664</v>
       </c>
       <c r="V19" s="172"/>
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>3705</v>
+        <v>3310</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3727</v>
+        <v>3351</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3705</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3950,23 +3950,23 @@
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
-        <v>3351</v>
+        <v>2664</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3705</v>
+        <v>3310</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3727</v>
+        <v>3351</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3705</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3974,23 +3974,23 @@
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
-        <v>3351</v>
+        <v>2664</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3705</v>
+        <v>3310</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3727</v>
+        <v>3351</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3705</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6603,23 +6603,23 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>PATRICIA APICELO</v>
+        <v>HELENICE DE JESUS PEREIRA</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>GLAUCIENE CONCEICAO RIBEIRO</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6627,24 +6627,24 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>PATRICIA APICELO</v>
+        <v>HELENICE DE JESUS PEREIRA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>GLAUCIENE CONCEICAO RIBEIRO</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v>PATRICIA APICELO</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>TAINNA PADELA BRAGA</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>RAPHAEL DE SA DOS SANTOS</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6935,23 +6935,23 @@
       </c>
       <c r="G19" s="258" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>3351</v>
+        <v>2664</v>
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3705</v>
+        <v>3310</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3727</v>
+        <v>3351</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3705</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6959,24 +6959,24 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>3351</v>
+        <v>2664</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3705</v>
+        <v>3310</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3727</v>
+        <v>3351</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3705</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3727</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IE.XLSX
@@ -142,7 +142,7 @@
     <t>TAINNA PADELA BRAGA</t>
   </si>
   <si>
-    <t>RAPHAEL DE SA DOS SANTOS</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -160,7 +160,7 @@
     <t>3705</t>
   </si>
   <si>
-    <t>3727</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v> </v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v> </v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v> </v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>3727</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>3727</v>
+        <v> </v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3727</v>
+        <v> </v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3727</v>
+        <v> </v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v> </v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>RAPHAEL DE SA DOS SANTOS</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3727</v>
+        <v> </v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3727</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
